--- a/ZSS/resources/Purva Vihar/FY2014-15/10-October-2014.xlsx
+++ b/ZSS/resources/Purva Vihar/FY2014-15/10-October-2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arathod\Desktop\Purva Vihar\FY2014-15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\PurvaVihar\ACP_PV\ZSS\resources\Purva Vihar\FY2014-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="86">
   <si>
     <t>Name of Flat Holder</t>
   </si>
@@ -541,9 +541,6 @@
     <t>Till April 2015</t>
   </si>
   <si>
-    <t xml:space="preserve">      /10/14</t>
-  </si>
-  <si>
     <t>Maintenance Charges for Month of October 2014.</t>
   </si>
   <si>
@@ -561,6 +558,12 @@
       </rPr>
       <t>\^/  HAPPY DIPAWALI \^/</t>
     </r>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Cheque</t>
   </si>
 </sst>
 </file>
@@ -1002,6 +1005,24 @@
       <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1099,24 +1120,6 @@
       <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1153,62 +1156,64 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AWing" displayName="AWing" ref="A8:L27" totalsRowCount="1" headerRowDxfId="36">
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AWing" displayName="AWing" ref="A8:M27" totalsRowCount="1" headerRowDxfId="36">
+  <tableColumns count="13">
     <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="35"/>
     <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="34"/>
-    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="11"/>
+    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="10"/>
+    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="9">
       <calculatedColumnFormula>AWing[[#This Row],[Last Month''s Balance]]+AWing[[#This Row],[Current Month Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="8"/>
+    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="7"/>
+    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="6">
       <calculatedColumnFormula>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Date" dataDxfId="21"/>
-    <tableColumn id="13" name="Receipt No." dataDxfId="20"/>
+    <tableColumn id="8" name="Date" dataDxfId="27"/>
+    <tableColumn id="13" name="Receipt No." dataDxfId="26"/>
     <tableColumn id="9" name="Payer's Sign"/>
     <tableColumn id="10" name="थकबाकी न देण्याचे कारण "/>
+    <tableColumn id="12" name="Mode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="BWing" displayName="BWing" ref="A8:L27" totalsRowCount="1" headerRowDxfId="19">
-  <tableColumns count="12">
-    <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="18"/>
-    <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="17"/>
-    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="5"/>
-    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="BWing" displayName="BWing" ref="A8:M27" totalsRowCount="1" headerRowDxfId="25">
+  <tableColumns count="13">
+    <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="24"/>
+    <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="23"/>
+    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="5"/>
+    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="4"/>
+    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="3">
       <calculatedColumnFormula>BWing[[#This Row],[Current Month Balance]]+BWing[[#This Row],[Last Month''s Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="2"/>
-    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="1"/>
-    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="0">
+    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="2"/>
+    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="1"/>
+    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="0">
       <calculatedColumnFormula>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Date" dataDxfId="10"/>
-    <tableColumn id="13" name="Receipt No." dataDxfId="9"/>
+    <tableColumn id="8" name="Date" dataDxfId="16"/>
+    <tableColumn id="13" name="Receipt No." dataDxfId="15"/>
     <tableColumn id="9" name="Payer's Sign"/>
     <tableColumn id="10" name="थकबाकी न देण्याचे कारण "/>
+    <tableColumn id="12" name="Mode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1" displayName="Table1" ref="B4:E14" totalsRowCount="1" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1" displayName="Table1" ref="B4:E14" totalsRowCount="1" headerRowDxfId="14">
   <autoFilter ref="B4:E13"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Item" totalsRowLabel="Total"/>
     <tableColumn id="3" name="Transaction Type" totalsRowFunction="custom">
       <totalsRowFormula>SUBTOTAL(103,Table1[Transaction Type])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="Amount" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Currency"/>
+    <tableColumn id="2" name="Amount" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Currency"/>
     <tableColumn id="4" name="Additional"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1502,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H26"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,7 +1529,7 @@
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="26" t="s">
         <v>10</v>
       </c>
@@ -1538,7 +1543,7 @@
       <c r="J1" s="27"/>
       <c r="K1" s="28"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1552,7 +1557,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="D3" s="30" t="s">
         <v>36</v>
@@ -1565,7 +1570,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>18</v>
       </c>
@@ -1579,9 +1584,9 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="42"/>
       <c r="E5" s="42"/>
@@ -1589,9 +1594,9 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -1603,7 +1608,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1640,8 +1645,11 @@
       <c r="L8" s="20" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -1668,12 +1676,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>3700</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>82</v>
+      <c r="I9" s="19">
+        <v>41929</v>
       </c>
       <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -1700,12 +1711,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>350</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>82</v>
+      <c r="I10" s="19">
+        <v>41943</v>
       </c>
       <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -1732,12 +1746,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>80</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>82</v>
+      <c r="I11" s="19">
+        <v>41931</v>
       </c>
       <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -1764,12 +1781,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>82</v>
+      <c r="I12" s="19">
+        <v>41929</v>
       </c>
       <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -1796,13 +1816,16 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>310</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>82</v>
+      <c r="I13" s="19">
+        <v>41943</v>
       </c>
       <c r="J13" s="22"/>
       <c r="L13" s="23"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -1829,12 +1852,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I14" s="19" t="s">
-        <v>82</v>
+      <c r="I14" s="19">
+        <v>41929</v>
       </c>
       <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>15</v>
       </c>
@@ -1861,15 +1887,18 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-1000</v>
       </c>
-      <c r="I15" s="19" t="s">
-        <v>82</v>
+      <c r="I15" s="19">
+        <v>41913</v>
       </c>
       <c r="J15" s="22"/>
       <c r="L15" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>16</v>
       </c>
@@ -1896,12 +1925,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I16" s="19" t="s">
-        <v>82</v>
+      <c r="I16" s="19">
+        <v>41929</v>
       </c>
       <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>17</v>
       </c>
@@ -1928,12 +1960,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I17" s="19" t="s">
-        <v>82</v>
+      <c r="I17" s="19">
+        <v>41929</v>
       </c>
       <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>18</v>
       </c>
@@ -1960,12 +1995,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I18" s="19" t="s">
-        <v>82</v>
+      <c r="I18" s="19">
+        <v>41929</v>
       </c>
       <c r="J18" s="22"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>23</v>
       </c>
@@ -1992,12 +2030,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>82</v>
+      <c r="I19" s="19">
+        <v>41930</v>
       </c>
       <c r="J19" s="22"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>24</v>
       </c>
@@ -2005,31 +2046,34 @@
         <v>65</v>
       </c>
       <c r="C20" s="8">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="D20" s="8">
         <v>200</v>
       </c>
       <c r="E20" s="8">
         <f>AWing[[#This Row],[Last Month''s Balance]]+AWing[[#This Row],[Current Month Balance]]</f>
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="F20" s="8">
         <v>0</v>
       </c>
       <c r="G20" s="8">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H20" s="8">
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
-        <v>450</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>82</v>
+        <v>230</v>
+      </c>
+      <c r="I20" s="19">
+        <v>41929</v>
       </c>
       <c r="J20" s="22"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>25</v>
       </c>
@@ -2056,15 +2100,18 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-1000</v>
       </c>
-      <c r="I21" s="19" t="s">
-        <v>82</v>
+      <c r="I21" s="19">
+        <v>41913</v>
       </c>
       <c r="J21" s="22"/>
       <c r="L21" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>26</v>
       </c>
@@ -2091,12 +2138,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>30</v>
       </c>
-      <c r="I22" s="19" t="s">
-        <v>82</v>
+      <c r="I22" s="19">
+        <v>41929</v>
       </c>
       <c r="J22" s="22"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>31</v>
       </c>
@@ -2123,12 +2173,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>7360</v>
       </c>
-      <c r="I23" s="19" t="s">
-        <v>82</v>
+      <c r="I23" s="19">
+        <v>41929</v>
       </c>
       <c r="J23" s="22"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>32</v>
       </c>
@@ -2155,15 +2208,18 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-1000</v>
       </c>
-      <c r="I24" s="19" t="s">
-        <v>82</v>
+      <c r="I24" s="19">
+        <v>41913</v>
       </c>
       <c r="J24" s="22"/>
       <c r="L24" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>33</v>
       </c>
@@ -2190,12 +2246,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>1240</v>
       </c>
-      <c r="I25" s="19" t="s">
-        <v>82</v>
+      <c r="I25" s="19">
+        <v>41943</v>
       </c>
       <c r="J25" s="22"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>34</v>
       </c>
@@ -2222,12 +2281,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-600</v>
       </c>
-      <c r="I26" s="19" t="s">
-        <v>82</v>
+      <c r="I26" s="19">
+        <v>41937</v>
       </c>
       <c r="J26" s="22"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2237,7 +2299,7 @@
       </c>
       <c r="C27" s="8">
         <f>SUBTOTAL(109,AWing[Last Month''s Balance])</f>
-        <v>10110</v>
+        <v>10090</v>
       </c>
       <c r="D27" s="8">
         <f>SUBTOTAL(109,AWing[Current Month Balance])</f>
@@ -2245,7 +2307,7 @@
       </c>
       <c r="E27" s="8">
         <f>SUBTOTAL(109,AWing[Total Balance])</f>
-        <v>14410</v>
+        <v>14390</v>
       </c>
       <c r="F27" s="8">
         <f>SUBTOTAL(109,AWing[Penalty])</f>
@@ -2253,14 +2315,14 @@
       </c>
       <c r="G27" s="8">
         <f>SUBTOTAL(109,AWing[Received Maint. Charge])</f>
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="H27" s="8">
         <f>SUBTOTAL(109,AWing[Remaining Balance])</f>
-        <v>9920</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>38</v>
       </c>
@@ -2276,7 +2338,7 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -2290,7 +2352,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>31</v>
       </c>
@@ -2310,7 +2372,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>34</v>
       </c>
@@ -2354,10 +2416,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2376,7 +2438,7 @@
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="44" t="s">
         <v>10</v>
       </c>
@@ -2390,7 +2452,7 @@
       <c r="J1" s="44"/>
       <c r="K1" s="44"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2404,7 +2466,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="30" t="s">
         <v>36</v>
@@ -2417,7 +2479,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>17</v>
       </c>
@@ -2431,9 +2493,9 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="42"/>
       <c r="E5" s="42"/>
@@ -2441,9 +2503,9 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -2455,7 +2517,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -2492,8 +2554,11 @@
       <c r="L8" s="20" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -2520,12 +2585,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>500</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>82</v>
+      <c r="I9" s="19">
+        <v>41943</v>
       </c>
       <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -2552,12 +2620,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>10</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>82</v>
+      <c r="I10" s="19">
+        <v>41931</v>
       </c>
       <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -2584,12 +2655,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>40</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>82</v>
+      <c r="I11" s="19">
+        <v>41931</v>
       </c>
       <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -2616,12 +2690,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-100</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>82</v>
+      <c r="I12" s="19">
+        <v>41931</v>
       </c>
       <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -2648,12 +2725,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>82</v>
+      <c r="I13" s="19">
+        <v>41931</v>
       </c>
       <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -2680,12 +2760,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>2440</v>
       </c>
-      <c r="I14" s="19" t="s">
-        <v>82</v>
+      <c r="I14" s="19">
+        <v>41943</v>
       </c>
       <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -2712,12 +2795,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I15" s="19" t="s">
-        <v>82</v>
+      <c r="I15" s="19">
+        <v>41931</v>
       </c>
       <c r="J15" s="22"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -2744,12 +2830,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I16" s="19" t="s">
-        <v>82</v>
+      <c r="I16" s="19">
+        <v>41931</v>
       </c>
       <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>19</v>
       </c>
@@ -2776,12 +2865,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>30</v>
       </c>
-      <c r="I17" s="19" t="s">
-        <v>82</v>
+      <c r="I17" s="19">
+        <v>41929</v>
       </c>
       <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>20</v>
       </c>
@@ -2808,12 +2900,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I18" s="19" t="s">
-        <v>82</v>
+      <c r="I18" s="19">
+        <v>41929</v>
       </c>
       <c r="J18" s="22"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>21</v>
       </c>
@@ -2840,12 +2935,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>82</v>
+      <c r="I19" s="19">
+        <v>41929</v>
       </c>
       <c r="J19" s="22"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>22</v>
       </c>
@@ -2872,14 +2970,17 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>1030</v>
       </c>
-      <c r="I20" s="19" t="s">
-        <v>82</v>
+      <c r="I20" s="19">
+        <v>41943</v>
       </c>
       <c r="J20" s="22"/>
-      <c r="P20" s="12"/>
-      <c r="S20" s="12"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="12"/>
+      <c r="T20" s="12"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>27</v>
       </c>
@@ -2906,16 +3007,19 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-1400</v>
       </c>
-      <c r="I21" s="19" t="s">
-        <v>82</v>
+      <c r="I21" s="19">
+        <v>41913</v>
       </c>
       <c r="J21" s="22"/>
       <c r="L21" t="s">
         <v>81</v>
       </c>
-      <c r="P21" s="12"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q21" s="12"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
@@ -2942,12 +3046,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I22" s="19" t="s">
-        <v>82</v>
+      <c r="I22" s="19">
+        <v>41943</v>
       </c>
       <c r="J22" s="22"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -2974,12 +3081,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I23" s="19" t="s">
-        <v>82</v>
+      <c r="I23" s="19">
+        <v>41929</v>
       </c>
       <c r="J23" s="22"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>14</v>
       </c>
@@ -3006,12 +3116,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>330</v>
       </c>
-      <c r="I24" s="19" t="s">
-        <v>82</v>
+      <c r="I24" s="19">
+        <v>41943</v>
       </c>
       <c r="J24" s="22"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>15</v>
       </c>
@@ -3038,12 +3151,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I25" s="19" t="s">
-        <v>82</v>
+      <c r="I25" s="19">
+        <v>41929</v>
       </c>
       <c r="J25" s="22"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>30</v>
       </c>
@@ -3070,12 +3186,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I26" s="19" t="s">
-        <v>82</v>
+      <c r="I26" s="19">
+        <v>41929</v>
       </c>
       <c r="J26" s="22"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -3108,7 +3227,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>37</v>
       </c>
@@ -3124,7 +3243,7 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -3138,7 +3257,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>31</v>
       </c>
@@ -3158,7 +3277,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>34</v>
       </c>

--- a/ZSS/resources/Purva Vihar/FY2014-15/10-October-2014.xlsx
+++ b/ZSS/resources/Purva Vihar/FY2014-15/10-October-2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\PurvaVihar\ACP_PV\ZSS\resources\Purva Vihar\FY2014-15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arathod\Desktop\Purva Vihar\FY2014-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="85">
   <si>
     <t>Name of Flat Holder</t>
   </si>
@@ -541,6 +541,9 @@
     <t>Till April 2015</t>
   </si>
   <si>
+    <t xml:space="preserve">      /10/14</t>
+  </si>
+  <si>
     <t>Maintenance Charges for Month of October 2014.</t>
   </si>
   <si>
@@ -558,12 +561,6 @@
       </rPr>
       <t>\^/  HAPPY DIPAWALI \^/</t>
     </r>
-  </si>
-  <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>Cheque</t>
   </si>
 </sst>
 </file>
@@ -1005,24 +1002,6 @@
       <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1120,6 +1099,24 @@
       <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1156,64 +1153,62 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AWing" displayName="AWing" ref="A8:M27" totalsRowCount="1" headerRowDxfId="36">
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AWing" displayName="AWing" ref="A8:L27" totalsRowCount="1" headerRowDxfId="36">
+  <tableColumns count="12">
     <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="35"/>
     <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="34"/>
-    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="11"/>
-    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="10"/>
-    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="9">
+    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>AWing[[#This Row],[Last Month''s Balance]]+AWing[[#This Row],[Current Month Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="8"/>
-    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="7"/>
-    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="6">
+    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Date" dataDxfId="27"/>
-    <tableColumn id="13" name="Receipt No." dataDxfId="26"/>
+    <tableColumn id="8" name="Date" dataDxfId="21"/>
+    <tableColumn id="13" name="Receipt No." dataDxfId="20"/>
     <tableColumn id="9" name="Payer's Sign"/>
     <tableColumn id="10" name="थकबाकी न देण्याचे कारण "/>
-    <tableColumn id="12" name="Mode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="BWing" displayName="BWing" ref="A8:M27" totalsRowCount="1" headerRowDxfId="25">
-  <tableColumns count="13">
-    <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="24"/>
-    <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="23"/>
-    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="5"/>
-    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="BWing" displayName="BWing" ref="A8:L27" totalsRowCount="1" headerRowDxfId="19">
+  <tableColumns count="12">
+    <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="18"/>
+    <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="17"/>
+    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="5"/>
+    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="4"/>
+    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="3">
       <calculatedColumnFormula>BWing[[#This Row],[Current Month Balance]]+BWing[[#This Row],[Last Month''s Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="2"/>
-    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="1"/>
-    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="0">
+    <tableColumn id="6" name="Penalty" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="2"/>
+    <tableColumn id="7" name="Received Maint. Charge" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="1"/>
+    <tableColumn id="11" name="Remaining Balance" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="0">
       <calculatedColumnFormula>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Date" dataDxfId="16"/>
-    <tableColumn id="13" name="Receipt No." dataDxfId="15"/>
+    <tableColumn id="8" name="Date" dataDxfId="10"/>
+    <tableColumn id="13" name="Receipt No." dataDxfId="9"/>
     <tableColumn id="9" name="Payer's Sign"/>
     <tableColumn id="10" name="थकबाकी न देण्याचे कारण "/>
-    <tableColumn id="12" name="Mode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1" displayName="Table1" ref="B4:E14" totalsRowCount="1" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1" displayName="Table1" ref="B4:E14" totalsRowCount="1" headerRowDxfId="8">
   <autoFilter ref="B4:E13"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Item" totalsRowLabel="Total"/>
     <tableColumn id="3" name="Transaction Type" totalsRowFunction="custom">
       <totalsRowFormula>SUBTOTAL(103,Table1[Transaction Type])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="Amount" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Currency"/>
+    <tableColumn id="2" name="Amount" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Currency"/>
     <tableColumn id="4" name="Additional"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1507,10 +1502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:M28"/>
+    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,7 +1524,7 @@
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="26" t="s">
         <v>10</v>
       </c>
@@ -1543,7 +1538,7 @@
       <c r="J1" s="27"/>
       <c r="K1" s="28"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1557,7 +1552,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="D3" s="30" t="s">
         <v>36</v>
@@ -1570,7 +1565,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>18</v>
       </c>
@@ -1584,9 +1579,9 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" s="41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D5" s="42"/>
       <c r="E5" s="42"/>
@@ -1594,9 +1589,9 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -1608,7 +1603,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1645,11 +1640,8 @@
       <c r="L8" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -1676,15 +1668,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>3700</v>
       </c>
-      <c r="I9" s="19">
-        <v>41929</v>
+      <c r="I9" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J9" s="22"/>
-      <c r="M9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -1711,15 +1700,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>350</v>
       </c>
-      <c r="I10" s="19">
-        <v>41943</v>
+      <c r="I10" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J10" s="22"/>
-      <c r="M10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -1746,15 +1732,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>80</v>
       </c>
-      <c r="I11" s="19">
-        <v>41931</v>
+      <c r="I11" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J11" s="22"/>
-      <c r="M11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -1781,15 +1764,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I12" s="19">
-        <v>41929</v>
+      <c r="I12" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J12" s="22"/>
-      <c r="M12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -1816,16 +1796,13 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>310</v>
       </c>
-      <c r="I13" s="19">
-        <v>41943</v>
+      <c r="I13" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J13" s="22"/>
       <c r="L13" s="23"/>
-      <c r="M13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -1852,15 +1829,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I14" s="19">
-        <v>41929</v>
+      <c r="I14" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J14" s="22"/>
-      <c r="M14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>15</v>
       </c>
@@ -1887,18 +1861,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-1000</v>
       </c>
-      <c r="I15" s="19">
-        <v>41913</v>
+      <c r="I15" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J15" s="22"/>
       <c r="L15" t="s">
         <v>78</v>
       </c>
-      <c r="M15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>16</v>
       </c>
@@ -1925,15 +1896,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I16" s="19">
-        <v>41929</v>
+      <c r="I16" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J16" s="22"/>
-      <c r="M16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>17</v>
       </c>
@@ -1960,15 +1928,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I17" s="19">
-        <v>41929</v>
+      <c r="I17" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J17" s="22"/>
-      <c r="M17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>18</v>
       </c>
@@ -1995,15 +1960,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I18" s="19">
-        <v>41929</v>
+      <c r="I18" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J18" s="22"/>
-      <c r="M18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>23</v>
       </c>
@@ -2030,15 +1992,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I19" s="19">
-        <v>41930</v>
+      <c r="I19" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J19" s="22"/>
-      <c r="M19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>24</v>
       </c>
@@ -2046,34 +2005,31 @@
         <v>65</v>
       </c>
       <c r="C20" s="8">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="D20" s="8">
         <v>200</v>
       </c>
       <c r="E20" s="8">
         <f>AWing[[#This Row],[Last Month''s Balance]]+AWing[[#This Row],[Current Month Balance]]</f>
-        <v>830</v>
+        <v>850</v>
       </c>
       <c r="F20" s="8">
         <v>0</v>
       </c>
       <c r="G20" s="8">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="H20" s="8">
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
-        <v>230</v>
-      </c>
-      <c r="I20" s="19">
-        <v>41929</v>
+        <v>450</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J20" s="22"/>
-      <c r="M20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>25</v>
       </c>
@@ -2100,18 +2056,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-1000</v>
       </c>
-      <c r="I21" s="19">
-        <v>41913</v>
+      <c r="I21" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J21" s="22"/>
       <c r="L21" t="s">
         <v>78</v>
       </c>
-      <c r="M21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>26</v>
       </c>
@@ -2138,15 +2091,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>30</v>
       </c>
-      <c r="I22" s="19">
-        <v>41929</v>
+      <c r="I22" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J22" s="22"/>
-      <c r="M22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>31</v>
       </c>
@@ -2173,15 +2123,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>7360</v>
       </c>
-      <c r="I23" s="19">
-        <v>41929</v>
+      <c r="I23" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J23" s="22"/>
-      <c r="M23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>32</v>
       </c>
@@ -2208,18 +2155,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-1000</v>
       </c>
-      <c r="I24" s="19">
-        <v>41913</v>
+      <c r="I24" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J24" s="22"/>
       <c r="L24" t="s">
         <v>78</v>
       </c>
-      <c r="M24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>33</v>
       </c>
@@ -2246,15 +2190,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>1240</v>
       </c>
-      <c r="I25" s="19">
-        <v>41943</v>
+      <c r="I25" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J25" s="22"/>
-      <c r="M25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>34</v>
       </c>
@@ -2281,15 +2222,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-600</v>
       </c>
-      <c r="I26" s="19">
-        <v>41937</v>
+      <c r="I26" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J26" s="22"/>
-      <c r="M26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2299,7 +2237,7 @@
       </c>
       <c r="C27" s="8">
         <f>SUBTOTAL(109,AWing[Last Month''s Balance])</f>
-        <v>10090</v>
+        <v>10110</v>
       </c>
       <c r="D27" s="8">
         <f>SUBTOTAL(109,AWing[Current Month Balance])</f>
@@ -2307,7 +2245,7 @@
       </c>
       <c r="E27" s="8">
         <f>SUBTOTAL(109,AWing[Total Balance])</f>
-        <v>14390</v>
+        <v>14410</v>
       </c>
       <c r="F27" s="8">
         <f>SUBTOTAL(109,AWing[Penalty])</f>
@@ -2315,14 +2253,14 @@
       </c>
       <c r="G27" s="8">
         <f>SUBTOTAL(109,AWing[Received Maint. Charge])</f>
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="H27" s="8">
         <f>SUBTOTAL(109,AWing[Remaining Balance])</f>
-        <v>9700</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9920</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>38</v>
       </c>
@@ -2338,7 +2276,7 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -2352,7 +2290,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>31</v>
       </c>
@@ -2372,7 +2310,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>34</v>
       </c>
@@ -2416,10 +2354,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,7 +2376,7 @@
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="44" t="s">
         <v>10</v>
       </c>
@@ -2452,7 +2390,7 @@
       <c r="J1" s="44"/>
       <c r="K1" s="44"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2466,7 +2404,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="30" t="s">
         <v>36</v>
@@ -2479,7 +2417,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>17</v>
       </c>
@@ -2493,9 +2431,9 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" s="41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D5" s="42"/>
       <c r="E5" s="42"/>
@@ -2503,9 +2441,9 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -2517,7 +2455,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -2554,11 +2492,8 @@
       <c r="L8" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -2585,15 +2520,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>500</v>
       </c>
-      <c r="I9" s="19">
-        <v>41943</v>
+      <c r="I9" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J9" s="22"/>
-      <c r="M9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -2620,15 +2552,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>10</v>
       </c>
-      <c r="I10" s="19">
-        <v>41931</v>
+      <c r="I10" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J10" s="22"/>
-      <c r="M10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -2655,15 +2584,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>40</v>
       </c>
-      <c r="I11" s="19">
-        <v>41931</v>
+      <c r="I11" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J11" s="22"/>
-      <c r="M11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -2690,15 +2616,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-100</v>
       </c>
-      <c r="I12" s="19">
-        <v>41931</v>
+      <c r="I12" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J12" s="22"/>
-      <c r="M12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -2725,15 +2648,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I13" s="19">
-        <v>41931</v>
+      <c r="I13" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J13" s="22"/>
-      <c r="M13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -2760,15 +2680,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>2440</v>
       </c>
-      <c r="I14" s="19">
-        <v>41943</v>
+      <c r="I14" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J14" s="22"/>
-      <c r="M14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -2795,15 +2712,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I15" s="19">
-        <v>41931</v>
+      <c r="I15" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J15" s="22"/>
-      <c r="M15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -2830,15 +2744,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I16" s="19">
-        <v>41931</v>
+      <c r="I16" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J16" s="22"/>
-      <c r="M16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>19</v>
       </c>
@@ -2865,15 +2776,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>30</v>
       </c>
-      <c r="I17" s="19">
-        <v>41929</v>
+      <c r="I17" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J17" s="22"/>
-      <c r="M17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>20</v>
       </c>
@@ -2900,15 +2808,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I18" s="19">
-        <v>41929</v>
+      <c r="I18" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J18" s="22"/>
-      <c r="M18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>21</v>
       </c>
@@ -2935,15 +2840,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I19" s="19">
-        <v>41929</v>
+      <c r="I19" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J19" s="22"/>
-      <c r="M19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>22</v>
       </c>
@@ -2970,17 +2872,14 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>1030</v>
       </c>
-      <c r="I20" s="19">
-        <v>41943</v>
+      <c r="I20" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J20" s="22"/>
-      <c r="M20" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q20" s="12"/>
-      <c r="T20" s="12"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P20" s="12"/>
+      <c r="S20" s="12"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>27</v>
       </c>
@@ -3007,19 +2906,16 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-1400</v>
       </c>
-      <c r="I21" s="19">
-        <v>41913</v>
+      <c r="I21" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J21" s="22"/>
       <c r="L21" t="s">
         <v>81</v>
       </c>
-      <c r="M21" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q21" s="12"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P21" s="12"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
@@ -3046,15 +2942,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I22" s="19">
-        <v>41943</v>
+      <c r="I22" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J22" s="22"/>
-      <c r="M22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -3081,15 +2974,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I23" s="19">
-        <v>41929</v>
+      <c r="I23" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J23" s="22"/>
-      <c r="M23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>14</v>
       </c>
@@ -3116,15 +3006,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>330</v>
       </c>
-      <c r="I24" s="19">
-        <v>41943</v>
+      <c r="I24" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J24" s="22"/>
-      <c r="M24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>15</v>
       </c>
@@ -3151,15 +3038,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I25" s="19">
-        <v>41929</v>
+      <c r="I25" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J25" s="22"/>
-      <c r="M25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>30</v>
       </c>
@@ -3186,15 +3070,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I26" s="19">
-        <v>41929</v>
+      <c r="I26" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="J26" s="22"/>
-      <c r="M26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -3227,7 +3108,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>37</v>
       </c>
@@ -3243,7 +3124,7 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -3257,7 +3138,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>31</v>
       </c>
@@ -3277,7 +3158,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>34</v>
       </c>
